--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA9FB0C-7ADC-42E1-9C81-39C05034335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{499E5951-930A-4D70-8243-943CF42EF4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE6145AB-AD7C-43BB-875B-E1B4E8767BC0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF0A66E-59FC-486F-9153-EB51433A003C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="457">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0%</t>
@@ -101,7 +101,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,1093 +125,1081 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>5,87%</t>
@@ -1220,31 +1208,31 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>8,07%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>91,91%</t>
+    <t>91,93%</t>
   </si>
   <si>
     <t>95,85%</t>
@@ -1253,181 +1241,175 @@
     <t>97,09%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>76,01%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2280C9-2181-4563-A6A5-4F32B594C1DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AFD885-75AE-438A-B807-71E5ADDAC345}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2926,10 +2908,10 @@
         <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,16 +2923,16 @@
         <v>3022</v>
       </c>
       <c r="D23" s="7">
-        <v>3092497</v>
+        <v>3092498</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -2959,28 +2941,28 @@
         <v>3173983</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6119</v>
       </c>
       <c r="N23" s="7">
-        <v>6266478</v>
+        <v>6266479</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2974,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3022,7 +3004,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -3036,7 +3018,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA909D0-008D-459B-BE13-B958DDF30A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EB797-CB27-4B6F-8A49-1D5FB115D5C3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3075,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3182,13 +3164,13 @@
         <v>1866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3197,13 +3179,13 @@
         <v>3036</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3212,13 +3194,13 @@
         <v>4901</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,10 +3215,10 @@
         <v>451239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3248,13 +3230,13 @@
         <v>426303</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -3263,13 +3245,13 @@
         <v>877544</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3319,13 @@
         <v>10557</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3352,13 +3334,13 @@
         <v>7761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3367,13 +3349,13 @@
         <v>18318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3370,13 @@
         <v>675681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3403,13 +3385,13 @@
         <v>601453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -3418,13 +3400,13 @@
         <v>1277133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3474,13 @@
         <v>3904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3507,13 +3489,13 @@
         <v>12124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3522,13 +3504,13 @@
         <v>16028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3525,13 @@
         <v>676150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -3558,13 +3540,13 @@
         <v>693811</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3573,13 +3555,13 @@
         <v>1369961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3629,13 @@
         <v>22462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3662,13 +3644,13 @@
         <v>21507</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3677,13 +3659,13 @@
         <v>43969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3680,13 @@
         <v>592155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3713,13 +3695,13 @@
         <v>592565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3728,13 +3710,13 @@
         <v>1184720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>49708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3817,13 +3799,13 @@
         <v>52216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -3832,13 +3814,13 @@
         <v>101924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3835,13 @@
         <v>378636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -3868,13 +3850,13 @@
         <v>395584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>702</v>
@@ -3883,13 +3865,13 @@
         <v>774220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3939,13 @@
         <v>161574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -3972,13 +3954,13 @@
         <v>203342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -3987,13 +3969,13 @@
         <v>364916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3990,13 @@
         <v>397248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -4023,13 +4005,13 @@
         <v>537407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -4038,13 +4020,13 @@
         <v>934655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>250071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -4127,13 +4109,13 @@
         <v>299986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>512</v>
@@ -4142,13 +4124,13 @@
         <v>550056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4145,13 @@
         <v>3171108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>3005</v>
@@ -4178,28 +4160,28 @@
         <v>3247124</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M23" s="7">
         <v>5979</v>
       </c>
       <c r="N23" s="7">
-        <v>6418232</v>
+        <v>6418233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,7 +4223,7 @@
         <v>6491</v>
       </c>
       <c r="N24" s="7">
-        <v>6968288</v>
+        <v>6968289</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -4255,7 +4237,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4277,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E7627E-74C6-4FC3-9F7E-3188A92BFF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC0A54-C376-4F00-B2C4-A7F40EC50D3A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4294,7 +4276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4401,13 +4383,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4422,7 +4404,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4431,13 +4413,13 @@
         <v>932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4434,10 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4470,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4482,10 +4464,10 @@
         <v>814286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4556,13 +4538,13 @@
         <v>2002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4571,13 +4553,13 @@
         <v>2764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4586,13 +4568,13 @@
         <v>4766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4589,10 @@
         <v>588494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4622,13 +4604,13 @@
         <v>560780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4637,13 +4619,13 @@
         <v>1149274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4693,13 @@
         <v>8790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4726,13 +4708,13 @@
         <v>7479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4741,13 +4723,13 @@
         <v>16268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4744,13 @@
         <v>660307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4777,13 +4759,13 @@
         <v>653907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4792,13 +4774,13 @@
         <v>1314215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4848,13 @@
         <v>35693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4881,13 +4863,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4896,13 +4878,13 @@
         <v>56340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4899,13 @@
         <v>610355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -4932,28 +4914,28 @@
         <v>628430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
       </c>
       <c r="N14" s="7">
-        <v>1238785</v>
+        <v>1238786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +4977,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -5021,13 +5003,13 @@
         <v>60307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5036,13 +5018,13 @@
         <v>57551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5054,10 +5036,10 @@
         <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5054,13 @@
         <v>417611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5087,13 +5069,13 @@
         <v>439298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -5105,10 +5087,10 @@
         <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5158,13 @@
         <v>176084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -5191,13 +5173,13 @@
         <v>189502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
@@ -5206,13 +5188,13 @@
         <v>365586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5209,13 @@
         <v>415244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>496</v>
@@ -5242,13 +5224,13 @@
         <v>588429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>936</v>
@@ -5257,13 +5239,13 @@
         <v>1003673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5313,13 @@
         <v>283807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5346,13 +5328,13 @@
         <v>277943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -5361,13 +5343,13 @@
         <v>561750</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5364,13 @@
         <v>3110543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -5397,13 +5379,13 @@
         <v>3266599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>6043</v>
@@ -5412,13 +5394,13 @@
         <v>6377142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,7 +5456,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721FC83-BB22-4FE0-810E-02993B6EB028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D3C07-BBFB-4689-9CAE-10360CFDC888}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5513,7 +5495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5635,13 +5617,13 @@
         <v>1088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5650,13 +5632,13 @@
         <v>1088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,7 +5656,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5686,10 +5668,10 @@
         <v>353869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5701,10 +5683,10 @@
         <v>731548</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5775,13 +5757,13 @@
         <v>1821</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5790,13 +5772,13 @@
         <v>889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5805,13 +5787,13 @@
         <v>2711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,10 +5808,10 @@
         <v>426575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5841,10 +5823,10 @@
         <v>497688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5856,10 +5838,10 @@
         <v>924262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5930,13 +5912,13 @@
         <v>10849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5945,13 +5927,13 @@
         <v>5589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5960,13 +5942,13 @@
         <v>16437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5963,13 @@
         <v>546403</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
@@ -5996,13 +5978,13 @@
         <v>577887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -6011,10 +5993,10 @@
         <v>1124290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>54</v>
@@ -6085,13 +6067,13 @@
         <v>42469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6100,13 +6082,13 @@
         <v>21734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -6115,13 +6097,13 @@
         <v>64203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6118,13 @@
         <v>681521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>1106</v>
@@ -6151,28 +6133,28 @@
         <v>725527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>1728</v>
       </c>
       <c r="N14" s="7">
-        <v>1407049</v>
+        <v>1407048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6196,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6240,13 +6222,13 @@
         <v>75466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6255,13 +6237,13 @@
         <v>39145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6270,13 +6252,13 @@
         <v>114611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6273,13 @@
         <v>523620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -6306,13 +6288,13 @@
         <v>554431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6321,13 +6303,13 @@
         <v>1078051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6377,13 @@
         <v>167398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>405</v>
@@ -6410,13 +6392,13 @@
         <v>209366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>664</v>
@@ -6425,13 +6407,13 @@
         <v>376764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,16 +6425,16 @@
         <v>769</v>
       </c>
       <c r="D20" s="7">
-        <v>530356</v>
+        <v>530357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>1301</v>
@@ -6461,13 +6443,13 @@
         <v>816005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>2070</v>
@@ -6476,13 +6458,13 @@
         <v>1346362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6476,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6550,13 +6532,13 @@
         <v>298003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>522</v>
@@ -6565,13 +6547,13 @@
         <v>277810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>927</v>
@@ -6580,13 +6562,13 @@
         <v>575813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6583,13 @@
         <v>3086155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>351</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>4838</v>
@@ -6616,28 +6598,28 @@
         <v>3525408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>7808</v>
       </c>
       <c r="N23" s="7">
-        <v>6611562</v>
+        <v>6611563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,7 +6661,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -6693,7 +6675,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499E5951-930A-4D70-8243-943CF42EF4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B472CE41-4617-4BF3-A89B-23920F8291D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF0A66E-59FC-486F-9153-EB51433A003C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F15392A-5C0D-4ABD-A27E-3BBAFC901590}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,1080 +80,1086 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -1385,9 +1391,6 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
     <t>90,25%</t>
   </si>
   <si>
@@ -1404,9 +1407,6 @@
   </si>
   <si>
     <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
   </si>
   <si>
     <t>92,65%</t>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AFD885-75AE-438A-B807-71E5ADDAC345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1ED92A-F3A3-474C-A46F-E22978EE0561}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2276,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2285,13 +2285,13 @@
         <v>17496</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>626322</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>652</v>
@@ -2321,13 +2321,13 @@
         <v>683575</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2336,13 +2336,13 @@
         <v>1309898</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2410,13 +2410,13 @@
         <v>23222</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2425,13 +2425,13 @@
         <v>17178</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -2440,13 +2440,13 @@
         <v>40401</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>495925</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -2476,13 +2476,13 @@
         <v>498464</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>946</v>
@@ -2491,13 +2491,13 @@
         <v>994388</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2565,13 +2565,13 @@
         <v>46749</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -2580,13 +2580,13 @@
         <v>40632</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -2595,13 +2595,13 @@
         <v>87382</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2616,13 @@
         <v>339961</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -2631,13 +2631,13 @@
         <v>363354</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>700</v>
@@ -2646,13 +2646,13 @@
         <v>703314</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2720,13 @@
         <v>98970</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -2735,13 +2735,13 @@
         <v>139200</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -2750,13 +2750,13 @@
         <v>238170</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2771,13 @@
         <v>403496</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>526</v>
@@ -2786,13 +2786,13 @@
         <v>537642</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>943</v>
@@ -2801,13 +2801,13 @@
         <v>941138</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2875,13 @@
         <v>183028</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>200</v>
@@ -2890,13 +2890,13 @@
         <v>205215</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>391</v>
@@ -2905,13 +2905,13 @@
         <v>388244</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,16 +2923,16 @@
         <v>3022</v>
       </c>
       <c r="D23" s="7">
-        <v>3092498</v>
+        <v>3092497</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -2941,13 +2941,13 @@
         <v>3173983</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>6119</v>
@@ -2956,13 +2956,13 @@
         <v>6266479</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3040,7 +3040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EB797-CB27-4B6F-8A49-1D5FB115D5C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C50C6A-E964-4878-A294-5E0FC23E4516}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3334,10 +3334,10 @@
         <v>7761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>155</v>
@@ -3385,13 +3385,13 @@
         <v>601453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -3474,13 +3474,13 @@
         <v>3904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3525,10 +3525,10 @@
         <v>676150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>176</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4097,10 +4097,10 @@
         <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -4109,13 +4109,13 @@
         <v>299986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>512</v>
@@ -4124,13 +4124,13 @@
         <v>550056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>3171108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>3005</v>
@@ -4160,28 +4160,28 @@
         <v>3247124</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>5979</v>
       </c>
       <c r="N23" s="7">
-        <v>6418233</v>
+        <v>6418232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
         <v>6491</v>
       </c>
       <c r="N24" s="7">
-        <v>6968289</v>
+        <v>6968288</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDC0A54-C376-4F00-B2C4-A7F40EC50D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED7FA0-37E3-42FA-B0E8-71FE3F6FD221}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4276,7 +4276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4383,13 +4383,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4413,13 +4413,13 @@
         <v>932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,10 +4434,10 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4553,13 +4553,13 @@
         <v>2764</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4571,10 +4571,10 @@
         <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,10 +4589,10 @@
         <v>588494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4604,13 +4604,13 @@
         <v>560780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4622,10 +4622,10 @@
         <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4693,13 @@
         <v>8790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4708,13 +4708,13 @@
         <v>7479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4723,13 +4723,13 @@
         <v>16268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4744,13 @@
         <v>660307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4759,13 +4759,13 @@
         <v>653907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4774,13 +4774,13 @@
         <v>1314215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4848,13 +4848,13 @@
         <v>35693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4863,13 +4863,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4878,13 +4878,13 @@
         <v>56340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4899,13 @@
         <v>610355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -4914,28 +4914,28 @@
         <v>628430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
       </c>
       <c r="N14" s="7">
-        <v>1238786</v>
+        <v>1238785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5003,13 +5003,13 @@
         <v>60307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5018,13 +5018,13 @@
         <v>57551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5033,13 +5033,13 @@
         <v>117857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5054,13 @@
         <v>417611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5069,13 +5069,13 @@
         <v>439298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -5084,7 +5084,7 @@
         <v>856910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>320</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5319,7 +5319,7 @@
         <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5328,13 +5328,13 @@
         <v>277943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -5343,13 +5343,13 @@
         <v>561750</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5364,13 @@
         <v>3110543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -5379,13 +5379,13 @@
         <v>3266599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>6043</v>
@@ -5394,13 +5394,13 @@
         <v>6377142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D3C07-BBFB-4689-9CAE-10360CFDC888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E3F6B2-1E56-4489-AF91-5DA461BD0E7B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5495,7 +5495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5608,7 +5608,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5617,13 +5617,13 @@
         <v>1088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5632,13 +5632,13 @@
         <v>1088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5656,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5757,7 +5757,7 @@
         <v>1821</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -5778,7 +5778,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5787,13 +5787,13 @@
         <v>2711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,10 +5808,10 @@
         <v>426575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5823,10 +5823,10 @@
         <v>497688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5838,10 +5838,10 @@
         <v>924262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5912,13 +5912,13 @@
         <v>10849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5927,13 +5927,13 @@
         <v>5589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5942,13 +5942,13 @@
         <v>16437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5963,13 @@
         <v>546403</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
@@ -5978,13 +5978,13 @@
         <v>577887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -5993,13 +5993,13 @@
         <v>1124290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6055,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6067,13 @@
         <v>42469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6082,13 +6082,13 @@
         <v>21734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -6097,13 +6097,13 @@
         <v>64203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6118,13 @@
         <v>681521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>1106</v>
@@ -6133,13 +6133,13 @@
         <v>725527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1728</v>
@@ -6148,13 +6148,13 @@
         <v>1407048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6222,13 +6222,13 @@
         <v>75466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6237,13 +6237,13 @@
         <v>39145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6252,13 +6252,13 @@
         <v>114611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6273,13 @@
         <v>523620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -6288,13 +6288,13 @@
         <v>554431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6303,13 +6303,13 @@
         <v>1078051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6377,13 +6377,13 @@
         <v>167398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>405</v>
@@ -6392,13 +6392,13 @@
         <v>209366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>664</v>
@@ -6407,13 +6407,13 @@
         <v>376764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6428,13 @@
         <v>530357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1301</v>
@@ -6443,13 +6443,13 @@
         <v>816005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>2070</v>
@@ -6458,13 +6458,13 @@
         <v>1346362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6532,13 @@
         <v>298003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>522</v>
@@ -6547,13 +6547,13 @@
         <v>277810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>927</v>
@@ -6562,13 +6562,13 @@
         <v>575813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6583,13 @@
         <v>3086155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>4838</v>
@@ -6598,13 +6598,13 @@
         <v>3525408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>7808</v>
@@ -6613,10 +6613,10 @@
         <v>6611563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>456</v>

--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B472CE41-4617-4BF3-A89B-23920F8291D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C69AA0C-E70D-410C-85C2-5A10E12CA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F15392A-5C0D-4ABD-A27E-3BBAFC901590}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D01425F2-E279-4BBC-AC2F-8D5F38CCD49B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="463">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,1324 +92,1342 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1ED92A-F3A3-474C-A46F-E22978EE0561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287B4E9-9966-4419-988C-5004CB6982BC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2276,7 +2294,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2285,13 +2303,13 @@
         <v>17496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2324,13 @@
         <v>626322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>652</v>
@@ -2321,13 +2339,13 @@
         <v>683575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2336,13 +2354,13 @@
         <v>1309898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2416,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2410,13 +2428,13 @@
         <v>23222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2425,13 +2443,13 @@
         <v>17178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -2440,13 +2458,13 @@
         <v>40401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2479,13 @@
         <v>495925</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -2476,13 +2494,13 @@
         <v>498464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>946</v>
@@ -2491,13 +2509,13 @@
         <v>994388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2565,13 +2583,13 @@
         <v>46749</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -2580,13 +2598,13 @@
         <v>40632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -2595,13 +2613,13 @@
         <v>87382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2634,13 @@
         <v>339961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -2631,13 +2649,13 @@
         <v>363354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>700</v>
@@ -2646,13 +2664,13 @@
         <v>703314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2726,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2738,13 @@
         <v>98970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -2735,13 +2753,13 @@
         <v>139200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -2750,13 +2768,13 @@
         <v>238170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2789,13 @@
         <v>403496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>526</v>
@@ -2786,13 +2804,13 @@
         <v>537642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>943</v>
@@ -2801,13 +2819,13 @@
         <v>941138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2893,13 @@
         <v>183028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>200</v>
@@ -2890,13 +2908,13 @@
         <v>205215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>391</v>
@@ -2905,13 +2923,13 @@
         <v>388244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2944,13 @@
         <v>3092497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -2941,28 +2959,28 @@
         <v>3173983</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6119</v>
       </c>
       <c r="N23" s="7">
-        <v>6266479</v>
+        <v>6266478</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3022,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -3018,7 +3036,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C50C6A-E964-4878-A294-5E0FC23E4516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AAD02A-5694-4368-9DB6-0FB0EF43202C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3164,13 +3182,13 @@
         <v>1866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3179,13 +3197,13 @@
         <v>3036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3194,13 +3212,13 @@
         <v>4901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,10 +3233,10 @@
         <v>451239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3230,13 +3248,13 @@
         <v>426303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -3245,13 +3263,13 @@
         <v>877544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3337,13 @@
         <v>10557</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3334,13 +3352,13 @@
         <v>7761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3349,13 +3367,13 @@
         <v>18318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3388,13 @@
         <v>675681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3385,13 +3403,13 @@
         <v>601453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -3400,13 +3418,13 @@
         <v>1277133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3492,13 @@
         <v>3904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3489,13 +3507,13 @@
         <v>12124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3504,13 +3522,13 @@
         <v>16028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3543,13 @@
         <v>676150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -3540,13 +3558,13 @@
         <v>693811</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3555,13 +3573,13 @@
         <v>1369961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3635,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3629,13 +3647,13 @@
         <v>22462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3644,13 +3662,13 @@
         <v>21507</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3659,13 +3677,13 @@
         <v>43969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3698,13 @@
         <v>592155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3695,13 +3713,13 @@
         <v>592565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3710,13 +3728,13 @@
         <v>1184720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,7 +3790,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3784,13 +3802,13 @@
         <v>49708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3799,13 +3817,13 @@
         <v>52216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -3814,13 +3832,13 @@
         <v>101924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3853,13 @@
         <v>378636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -3850,13 +3868,13 @@
         <v>395584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>702</v>
@@ -3865,13 +3883,13 @@
         <v>774220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3945,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3957,13 @@
         <v>161574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -3954,13 +3972,13 @@
         <v>203342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -3969,13 +3987,13 @@
         <v>364916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +4008,13 @@
         <v>397248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -4005,13 +4023,13 @@
         <v>537407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -4020,13 +4038,13 @@
         <v>934655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4112,13 @@
         <v>250071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -4109,13 +4127,13 @@
         <v>299986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>512</v>
@@ -4124,13 +4142,13 @@
         <v>550056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4163,13 @@
         <v>3171108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>3005</v>
@@ -4160,13 +4178,13 @@
         <v>3247124</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>5979</v>
@@ -4175,13 +4193,13 @@
         <v>6418232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,7 +4255,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED7FA0-37E3-42FA-B0E8-71FE3F6FD221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F64ED5-B385-4B2A-A5BA-F9686DD7EE8C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4276,7 +4294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4383,13 +4401,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4404,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4413,13 +4431,13 @@
         <v>932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,10 +4452,10 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4452,7 +4470,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4464,10 +4482,10 @@
         <v>814286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4538,13 +4556,13 @@
         <v>2002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4553,13 +4571,13 @@
         <v>2764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4568,13 +4586,13 @@
         <v>4766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,10 +4607,10 @@
         <v>588494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4604,13 +4622,13 @@
         <v>560780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4619,13 +4637,13 @@
         <v>1149274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4711,13 @@
         <v>8790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4708,13 +4726,13 @@
         <v>7479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4723,13 +4741,13 @@
         <v>16268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4762,13 @@
         <v>660307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4759,13 +4777,13 @@
         <v>653907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4774,13 +4792,13 @@
         <v>1314215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4854,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4848,13 +4866,13 @@
         <v>35693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4863,13 +4881,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4878,13 +4896,13 @@
         <v>56340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4917,13 @@
         <v>610355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -4914,13 +4932,13 @@
         <v>628430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4929,13 +4947,13 @@
         <v>1238785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +5009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5003,13 +5021,13 @@
         <v>60307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5018,13 +5036,13 @@
         <v>57551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5033,13 +5051,13 @@
         <v>117857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5072,13 @@
         <v>417611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5069,13 +5087,13 @@
         <v>439298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -5084,13 +5102,13 @@
         <v>856910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5164,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5158,13 +5176,13 @@
         <v>176084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -5173,13 +5191,13 @@
         <v>189502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
@@ -5188,13 +5206,13 @@
         <v>365586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5227,13 @@
         <v>415244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>496</v>
@@ -5224,13 +5242,13 @@
         <v>588429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>936</v>
@@ -5239,13 +5257,13 @@
         <v>1003673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5331,13 @@
         <v>283807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -5328,13 +5346,13 @@
         <v>277943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>526</v>
@@ -5343,13 +5361,13 @@
         <v>561750</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5382,13 @@
         <v>3110543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>3097</v>
@@ -5379,13 +5397,13 @@
         <v>3266599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M23" s="7">
         <v>6043</v>
@@ -5394,13 +5412,13 @@
         <v>6377142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,7 +5474,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +5496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E3F6B2-1E56-4489-AF91-5DA461BD0E7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999929FD-585C-4688-AE16-C468A70394A8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5495,7 +5513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5608,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5617,13 +5635,13 @@
         <v>1088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5632,13 +5650,13 @@
         <v>1088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5674,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5668,10 +5686,10 @@
         <v>353869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5683,10 +5701,10 @@
         <v>731548</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5757,13 +5775,13 @@
         <v>1821</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5772,13 +5790,13 @@
         <v>889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5787,13 +5805,13 @@
         <v>2711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,10 +5826,10 @@
         <v>426575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5823,10 +5841,10 @@
         <v>497688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5838,10 +5856,10 @@
         <v>924262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5912,13 +5930,13 @@
         <v>10849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5927,13 +5945,13 @@
         <v>5589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5942,13 +5960,13 @@
         <v>16437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5981,13 @@
         <v>546403</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
@@ -5978,13 +5996,13 @@
         <v>577887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -5993,13 +6011,13 @@
         <v>1124290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6073,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6085,13 @@
         <v>42469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6082,13 +6100,13 @@
         <v>21734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -6097,13 +6115,13 @@
         <v>64203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6136,13 @@
         <v>681521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>1106</v>
@@ -6133,28 +6151,28 @@
         <v>725527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1728</v>
       </c>
       <c r="N14" s="7">
-        <v>1407048</v>
+        <v>1407049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6214,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6210,7 +6228,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6222,13 +6240,13 @@
         <v>75466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6237,13 +6255,13 @@
         <v>39145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6252,13 +6270,13 @@
         <v>114611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6291,13 @@
         <v>523620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -6288,13 +6306,13 @@
         <v>554431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6303,13 +6321,13 @@
         <v>1078051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6383,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6377,13 +6395,13 @@
         <v>167398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>405</v>
@@ -6392,13 +6410,13 @@
         <v>209366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>664</v>
@@ -6407,13 +6425,13 @@
         <v>376764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,16 +6443,16 @@
         <v>769</v>
       </c>
       <c r="D20" s="7">
-        <v>530357</v>
+        <v>530356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1301</v>
@@ -6443,13 +6461,13 @@
         <v>816005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>2070</v>
@@ -6458,13 +6476,13 @@
         <v>1346362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6494,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6532,13 +6550,13 @@
         <v>298003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>522</v>
@@ -6547,13 +6565,13 @@
         <v>277810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>927</v>
@@ -6562,13 +6580,13 @@
         <v>575813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6601,13 @@
         <v>3086155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>4838</v>
@@ -6598,28 +6616,28 @@
         <v>3525408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>7808</v>
       </c>
       <c r="N23" s="7">
-        <v>6611563</v>
+        <v>6611562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,7 +6679,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -6675,7 +6693,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C69AA0C-E70D-410C-85C2-5A10E12CA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07378BF-BB06-4C87-A6E0-9A34487967BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D01425F2-E279-4BBC-AC2F-8D5F38CCD49B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A39338C-6F12-462C-82A8-F32C6BBA5F57}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="528">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -164,7 +164,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,78%</t>
@@ -221,7 +221,7 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -278,7 +278,7 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>12,09%</t>
@@ -335,748 +335,913 @@
     <t>91,06%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>8,36%</t>
@@ -1139,295 +1304,325 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
 </sst>
 </file>
@@ -1839,8 +2034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287B4E9-9966-4419-988C-5004CB6982BC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C69533-B68F-4D58-8E73-3FA91B992C6A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2732,10 +2927,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>98970</v>
+        <v>56993</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>99</v>
@@ -2747,10 +2942,10 @@
         <v>101</v>
       </c>
       <c r="H19" s="7">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="I19" s="7">
-        <v>139200</v>
+        <v>71156</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>102</v>
@@ -2762,10 +2957,10 @@
         <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="N19" s="7">
-        <v>238170</v>
+        <v>128148</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>105</v>
@@ -2783,10 +2978,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>403496</v>
+        <v>235590</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>108</v>
@@ -2798,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>526</v>
+        <v>295</v>
       </c>
       <c r="I20" s="7">
-        <v>537642</v>
+        <v>271778</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>111</v>
@@ -2813,10 +3008,10 @@
         <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>943</v>
+        <v>536</v>
       </c>
       <c r="N20" s="7">
-        <v>941138</v>
+        <v>507369</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>114</v>
@@ -2834,10 +3029,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2849,10 +3044,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2864,10 +3059,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2881,55 +3076,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>183028</v>
+        <v>41978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>205215</v>
+        <v>68044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="N22" s="7">
-        <v>388244</v>
+        <v>110022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +3133,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3022</v>
+        <v>176</v>
       </c>
       <c r="D23" s="7">
-        <v>3092497</v>
+        <v>167905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
-        <v>3097</v>
+        <v>231</v>
       </c>
       <c r="I23" s="7">
-        <v>3173983</v>
+        <v>265864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
-        <v>6119</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>6266478</v>
+        <v>433769</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,63 +3184,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>191</v>
+      </c>
+      <c r="D25" s="7">
+        <v>183028</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="7">
+        <v>200</v>
+      </c>
+      <c r="I25" s="7">
+        <v>205215</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M25" s="7">
+        <v>391</v>
+      </c>
+      <c r="N25" s="7">
+        <v>388244</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3022</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3092497</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3097</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3173982</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6119</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6266478</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3058,8 +3409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AAD02A-5694-4368-9DB6-0FB0EF43202C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD1A3DE-29BC-47A3-B468-400D90693692}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3075,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3182,13 +3533,13 @@
         <v>1866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3197,13 +3548,13 @@
         <v>3036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3212,13 +3563,13 @@
         <v>4901</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,10 +3584,10 @@
         <v>451239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3248,13 +3599,13 @@
         <v>426303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -3263,13 +3614,13 @@
         <v>877544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3688,13 @@
         <v>10557</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3352,13 +3703,13 @@
         <v>7761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3367,13 +3718,13 @@
         <v>18318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3739,13 @@
         <v>675681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3403,13 +3754,13 @@
         <v>601453</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -3418,13 +3769,13 @@
         <v>1277133</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3843,13 @@
         <v>3904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3507,13 +3858,13 @@
         <v>12124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3522,13 +3873,13 @@
         <v>16028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3894,13 @@
         <v>676150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -3558,13 +3909,13 @@
         <v>693811</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3573,13 +3924,13 @@
         <v>1369961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3998,13 @@
         <v>22462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3662,13 +4013,13 @@
         <v>21507</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3677,13 +4028,13 @@
         <v>43969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +4049,13 @@
         <v>592155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3713,13 +4064,13 @@
         <v>592565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1045</v>
@@ -3728,13 +4079,13 @@
         <v>1184720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +4153,13 @@
         <v>49708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -3817,13 +4168,13 @@
         <v>52216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -3832,13 +4183,13 @@
         <v>101924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +4204,13 @@
         <v>378636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
@@ -3868,13 +4219,13 @@
         <v>395584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>702</v>
@@ -3883,13 +4234,13 @@
         <v>774220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,49 +4302,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>161574</v>
+        <v>89826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>203342</v>
+        <v>84941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="N19" s="7">
-        <v>364916</v>
+        <v>174766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +4353,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7">
-        <v>397248</v>
+        <v>219960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>499</v>
+        <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>537407</v>
+        <v>269055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
-        <v>856</v>
+        <v>461</v>
       </c>
       <c r="N20" s="7">
-        <v>934655</v>
+        <v>489016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558822</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -4068,10 +4419,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>740749</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -4083,10 +4434,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1195</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1299571</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4100,55 +4451,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>250071</v>
+        <v>71749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>299986</v>
+        <v>118402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
-        <v>512</v>
+        <v>174</v>
       </c>
       <c r="N22" s="7">
-        <v>550056</v>
+        <v>190150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4508,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2974</v>
+        <v>156</v>
       </c>
       <c r="D23" s="7">
-        <v>3171108</v>
+        <v>177287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
-        <v>3005</v>
+        <v>239</v>
       </c>
       <c r="I23" s="7">
-        <v>3247124</v>
+        <v>268351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
-        <v>5979</v>
+        <v>395</v>
       </c>
       <c r="N23" s="7">
-        <v>6418232</v>
+        <v>445639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,63 +4559,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635789</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>229</v>
+      </c>
+      <c r="D25" s="7">
+        <v>250071</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="7">
+        <v>283</v>
+      </c>
+      <c r="I25" s="7">
+        <v>299986</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" s="7">
+        <v>512</v>
+      </c>
+      <c r="N25" s="7">
+        <v>550056</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2974</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3171108</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3005</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3247124</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5979</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6418233</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3203</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421179</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3547110</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6491</v>
       </c>
-      <c r="N24" s="7">
-        <v>6968288</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="N27" s="7">
+        <v>6968289</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4277,8 +4784,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F64ED5-B385-4B2A-A5BA-F9686DD7EE8C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B589FE-6665-40B5-8759-5ABEF465A9AB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4294,7 +4801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4401,13 +4908,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4422,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4431,13 +4938,13 @@
         <v>932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4959,10 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4470,7 +4977,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4482,10 +4989,10 @@
         <v>814286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4556,13 +5063,13 @@
         <v>2002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4571,13 +5078,13 @@
         <v>2764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4586,13 +5093,13 @@
         <v>4766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +5114,10 @@
         <v>588494</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4622,13 +5129,13 @@
         <v>560780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4637,13 +5144,13 @@
         <v>1149274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,10 +5221,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4726,10 +5233,10 @@
         <v>7479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>50</v>
@@ -4741,13 +5248,13 @@
         <v>16268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,10 +5272,10 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4777,13 +5284,13 @@
         <v>653907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4792,13 +5299,13 @@
         <v>1314215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +5373,13 @@
         <v>35693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4881,13 +5388,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4896,13 +5403,13 @@
         <v>56340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +5424,13 @@
         <v>610355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -4932,13 +5439,13 @@
         <v>628430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4947,13 +5454,13 @@
         <v>1238785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5528,13 @@
         <v>60307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5036,13 +5543,13 @@
         <v>57551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5054,10 +5561,10 @@
         <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5579,13 @@
         <v>417611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5087,13 +5594,13 @@
         <v>439298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -5105,10 +5612,10 @@
         <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,49 +5677,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>176084</v>
+        <v>90456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="I19" s="7">
-        <v>189502</v>
+        <v>83517</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="N19" s="7">
-        <v>365586</v>
+        <v>173973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,49 +5728,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>440</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>415244</v>
+        <v>243874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
-        <v>496</v>
+        <v>275</v>
       </c>
       <c r="I20" s="7">
-        <v>588429</v>
+        <v>294245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
-        <v>936</v>
+        <v>513</v>
       </c>
       <c r="N20" s="7">
-        <v>1003673</v>
+        <v>538119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,10 +5779,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5287,10 +5794,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5302,10 +5809,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5319,55 +5826,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>283807</v>
+        <v>85628</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I22" s="7">
-        <v>277943</v>
+        <v>105985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M22" s="7">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="N22" s="7">
-        <v>561750</v>
+        <v>191613</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,49 +5883,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2946</v>
+        <v>202</v>
       </c>
       <c r="D23" s="7">
-        <v>3110543</v>
+        <v>171370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
-        <v>3097</v>
+        <v>221</v>
       </c>
       <c r="I23" s="7">
-        <v>3266599</v>
+        <v>294184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
-        <v>6043</v>
+        <v>423</v>
       </c>
       <c r="N23" s="7">
-        <v>6377142</v>
+        <v>465554</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,63 +5934,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>285</v>
+      </c>
+      <c r="D25" s="7">
+        <v>283807</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="7">
+        <v>241</v>
+      </c>
+      <c r="I25" s="7">
+        <v>277943</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" s="7">
+        <v>526</v>
+      </c>
+      <c r="N25" s="7">
+        <v>561750</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2946</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3110543</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3097</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3266599</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6043</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6377142</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5496,8 +6159,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999929FD-585C-4688-AE16-C468A70394A8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CAFD4-D4EB-4539-AE77-A001EA8EC176}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5513,7 +6176,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,37 +6289,37 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +6331,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5683,13 +6346,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>353869</v>
+        <v>312114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5698,13 +6361,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>731548</v>
+        <v>712101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5719,7 +6382,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -5734,7 +6397,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -5749,7 +6412,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -5772,46 +6435,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1821</v>
+        <v>1936</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>889</v>
+        <v>803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>371</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2711</v>
+        <v>2739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +6486,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>426575</v>
+        <v>421611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5838,13 +6501,13 @@
         <v>459</v>
       </c>
       <c r="I8" s="7">
-        <v>497688</v>
+        <v>510701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5853,13 +6516,13 @@
         <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>924262</v>
+        <v>932312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5874,7 +6537,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -5889,7 +6552,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -5904,7 +6567,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -5927,46 +6590,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>10849</v>
+        <v>10267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>5589</v>
+        <v>5181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>16437</v>
+        <v>15448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,43 +6641,43 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>546403</v>
+        <v>526071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
       </c>
       <c r="I11" s="7">
-        <v>577887</v>
+        <v>537287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
       </c>
       <c r="N11" s="7">
-        <v>1124290</v>
+        <v>1063358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>54</v>
@@ -6029,7 +6692,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -6044,7 +6707,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -6059,7 +6722,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6082,46 +6745,46 @@
         <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>42469</v>
+        <v>41226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>21734</v>
+        <v>20030</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>64203</v>
+        <v>61255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,46 +6796,46 @@
         <v>622</v>
       </c>
       <c r="D14" s="7">
-        <v>681521</v>
+        <v>846560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>1106</v>
       </c>
       <c r="I14" s="7">
-        <v>725527</v>
+        <v>692851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>1728</v>
       </c>
       <c r="N14" s="7">
-        <v>1407049</v>
+        <v>1539412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6847,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -6199,7 +6862,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -6214,7 +6877,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6237,46 +6900,46 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>75466</v>
+        <v>71811</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>39145</v>
+        <v>36169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>114611</v>
+        <v>107980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,46 +6951,46 @@
         <v>572</v>
       </c>
       <c r="D17" s="7">
-        <v>523620</v>
+        <v>488426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
       </c>
       <c r="I17" s="7">
-        <v>554431</v>
+        <v>508718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
       </c>
       <c r="N17" s="7">
-        <v>1078051</v>
+        <v>997144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +7002,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -6354,7 +7017,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -6369,7 +7032,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -6389,49 +7052,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>167398</v>
+        <v>77108</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7">
-        <v>209366</v>
+        <v>64503</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
-        <v>664</v>
+        <v>254</v>
       </c>
       <c r="N19" s="7">
-        <v>376764</v>
+        <v>141611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,49 +7103,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>769</v>
+        <v>448</v>
       </c>
       <c r="D20" s="7">
-        <v>530356</v>
+        <v>291057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
-        <v>1301</v>
+        <v>695</v>
       </c>
       <c r="I20" s="7">
-        <v>816005</v>
+        <v>543865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
-        <v>2070</v>
+        <v>1143</v>
       </c>
       <c r="N20" s="7">
-        <v>1346362</v>
+        <v>834922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,10 +7154,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6506,10 +7169,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -6521,10 +7184,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723126</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -6538,55 +7201,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>405</v>
+        <v>137</v>
       </c>
       <c r="D22" s="7">
-        <v>298003</v>
+        <v>79761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
-        <v>522</v>
+        <v>273</v>
       </c>
       <c r="I22" s="7">
-        <v>277810</v>
+        <v>125946</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
-        <v>927</v>
+        <v>410</v>
       </c>
       <c r="N22" s="7">
-        <v>575813</v>
+        <v>205706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,49 +7258,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2970</v>
+        <v>321</v>
       </c>
       <c r="D23" s="7">
-        <v>3086155</v>
+        <v>202998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
-        <v>4838</v>
+        <v>606</v>
       </c>
       <c r="I23" s="7">
-        <v>3525408</v>
+        <v>298779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
-        <v>7808</v>
+        <v>927</v>
       </c>
       <c r="N23" s="7">
-        <v>6611562</v>
+        <v>501778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,63 +7309,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>405</v>
+      </c>
+      <c r="D25" s="7">
+        <v>282108</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H25" s="7">
+        <v>522</v>
+      </c>
+      <c r="I25" s="7">
+        <v>253717</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M25" s="7">
+        <v>927</v>
+      </c>
+      <c r="N25" s="7">
+        <v>535825</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2970</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3176712</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4838</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3404316</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7808</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6581028</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658033</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8735</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="N27" s="7">
+        <v>7116853</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
